--- a/data/calloff_template.xlsx
+++ b/data/calloff_template.xlsx
@@ -1251,7 +1251,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
